--- a/Question_Set2/Software skills/Active Directory.xlsx
+++ b/Question_Set2/Software skills/Active Directory.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a system administrator at an insurance company with multiple offices. You are implementing the Active Directory replication of changed records only to save bandwidth.  Which of the following Active Directory forest features is best suited to achieve this replication goal?', 'ques_type': 2, 'options': ['Linked Value Replication', 'Forest Trust', 'Global catalog replication enhancement', 'Active Directory Federation Services'], 'score': 'Linked Value Replication'}, {'title': 'You are a team leader of the network administration team that recently hired two new server administrators. Your policy dictates that new administrators should be granted permissions on any domain in your Active Directory forest and other trusting domains or forests.  Which of the following Active Directory group scopes best suits the permission needs of the new administrators?', 'ques_type': 2, 'options': ['Universal', 'Distribution', 'Global', 'Domain local'], 'score': 'Global'}, {'title': 'You are an account operator at an insurance company. The company provides central authentication with an Active Directory to domain member computers. A data entry operator tried to log on to a workstation and reported the failed logon problem shown in the screenshot below.  After showing the properties of the user, Bob, what steps should you take to fix the problem?', 'ques_type': 2, 'options': ['Change the active session limit.', 'Change the environment.', 'Allow dial-in access.', 'Change logon hours.'], 'score': 'Change logon hours.'}, {'title': 'You are a system administrator at an educational institute. You have created a Group Policy Object (GPO) NewAdmins for two newly hired system administrators: Bob and Alice. You want to back up the newly created GPO in C :\\newadmins_bak with a comment that reads “Bob and Alice GPO.” Which of the following PowerShell cmdlets should you use to achieve this goal?', 'ques_type': 2, 'options': ['mkdir newadmins_bakbackup-gpo -name NewAdmins -path c:\\newadmins_bak\\', 'backup-gpo -n NewAdmins -p newadmins_bak\\', 'Cd c:\\newadmins_bakbackup-gpo -name NewAdmins -path c:\\newadmins_bak\\', 'mkdir newadmins_bakbackup-gpo -i NewAdmins -o c:\\newadmins_bak\\'], 'score': 'mkdir newadmins_bakbackup-gpo -name NewAdmins -path c:\\newadmins_bak\\'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a system administrator at an insurance company with multiple offices. You are implementing the Active Directory replication of changed records only to save bandwidth.  Which of the following Active Directory forest features is best suited to achieve this replication goal?",
+        "ques_type": 2,
+        "options": [
+            "Linked Value Replication",
+            "Forest Trust",
+            "Global catalog replication enhancement",
+            "Active Directory Federation Services"
+        ],
+        "score": "Linked Value Replication"
+    },
+    {
+        "title": "You are a team leader of the network administration team that recently hired two new server administrators. Your policy dictates that new administrators should be granted permissions on any domain in your Active Directory forest and other trusting domains or forests.  Which of the following Active Directory group scopes best suits the permission needs of the new administrators?",
+        "ques_type": 2,
+        "options": [
+            "Universal",
+            "Distribution",
+            "Global",
+            "Domain local"
+        ],
+        "score": "Global"
+    },
+    {
+        "title": "You are an account operator at an insurance company. The company provides central authentication with an Active Directory to domain member computers. A data entry operator tried to log on to a workstation and reported the failed logon problem shown in the screenshot below.  After showing the properties of the user, Bob, what steps should you take to fix the problem?",
+        "ques_type": 2,
+        "options": [
+            "Change the active session limit.",
+            "Change the environment.",
+            "Allow dial-in access.",
+            "Change logon hours."
+        ],
+        "score": "Change logon hours."
+    },
+    {
+        "title": "You are a system administrator at an educational institute. You have created a Group Policy Object (GPO) NewAdmins for two newly hired system administrators: Bob and Alice. You want to back up the newly created GPO in C :\\newadmins_bak with a comment that reads \u201cBob and Alice GPO.\u201d Which of the following PowerShell cmdlets should you use to achieve this goal?",
+        "ques_type": 2,
+        "options": [
+            "mkdir newadmins_bakbackup-gpo -name NewAdmins -path c:\\newadmins_bak\\",
+            "backup-gpo -n NewAdmins -p newadmins_bak\\",
+            "Cd c:\\newadmins_bakbackup-gpo -name NewAdmins -path c:\\newadmins_bak\\",
+            "mkdir newadmins_bakbackup-gpo -i NewAdmins -o c:\\newadmins_bak\\"
+        ],
+        "score": "mkdir newadmins_bakbackup-gpo -name NewAdmins -path c:\\newadmins_bak\\"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
